--- a/Bug Reports/Freign Remittance Bugs Report.xlsx
+++ b/Bug Reports/Freign Remittance Bugs Report.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\trade_finance\Bug Reports\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFA838B2-FE2A-4C46-9D33-E42EF5084256}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33681D71-D5F6-4780-B200-B74CCA57BCB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="59">
   <si>
     <r>
       <t>System Name</t>
@@ -238,6 +238,9 @@
   <si>
     <t>in Purpose code field, the option
  'feeding account' is not existed.</t>
+  </si>
+  <si>
+    <t>Fail</t>
   </si>
 </sst>
 </file>
@@ -288,7 +291,7 @@
       <family val="3"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -337,6 +340,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="8">
     <border>
@@ -448,7 +457,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -478,6 +487,7 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -776,8 +786,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -797,11 +807,11 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="B1" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="15"/>
-      <c r="D1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="17"/>
       <c r="E1" s="11"/>
       <c r="F1" s="2"/>
     </row>
@@ -809,11 +819,11 @@
       <c r="A2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="17" t="s">
+      <c r="B2" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="18"/>
-      <c r="D2" s="19"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="20"/>
       <c r="E2" s="12"/>
       <c r="F2" s="5"/>
     </row>
@@ -1153,8 +1163,8 @@
       <c r="B16" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="C16" s="10" t="s">
-        <v>9</v>
+      <c r="C16" s="15" t="s">
+        <v>58</v>
       </c>
       <c r="D16" s="9" t="s">
         <v>53</v>
@@ -1166,7 +1176,7 @@
         <v>45361</v>
       </c>
       <c r="G16" s="3">
-        <v>45361</v>
+        <v>45382</v>
       </c>
       <c r="I16" t="s">
         <v>52</v>

--- a/Bug Reports/Freign Remittance Bugs Report.xlsx
+++ b/Bug Reports/Freign Remittance Bugs Report.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\trade_finance\Bug Reports\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33681D71-D5F6-4780-B200-B74CCA57BCB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BE696A3-BBB2-4110-8D6F-AA5E4E6503F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="59">
   <si>
     <r>
       <t>System Name</t>
@@ -240,7 +240,7 @@
  'feeding account' is not existed.</t>
   </si>
   <si>
-    <t>Fail</t>
+    <t>configuration level.</t>
   </si>
 </sst>
 </file>
@@ -291,7 +291,7 @@
       <family val="3"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -340,12 +340,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="8">
     <border>
@@ -457,7 +451,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -487,7 +481,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -786,8 +779,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -807,11 +800,11 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="16"/>
-      <c r="D1" s="17"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="16"/>
       <c r="E1" s="11"/>
       <c r="F1" s="2"/>
     </row>
@@ -819,11 +812,11 @@
       <c r="A2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="18" t="s">
+      <c r="B2" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="19"/>
-      <c r="D2" s="20"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="19"/>
       <c r="E2" s="12"/>
       <c r="F2" s="5"/>
     </row>
@@ -947,8 +940,8 @@
       <c r="B7" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="C7" s="10" t="s">
-        <v>9</v>
+      <c r="C7" s="14" t="s">
+        <v>39</v>
       </c>
       <c r="D7" s="9" t="s">
         <v>25</v>
@@ -960,7 +953,10 @@
         <v>45357</v>
       </c>
       <c r="G7" s="3">
-        <v>45357</v>
+        <v>45429</v>
+      </c>
+      <c r="H7" s="3">
+        <v>45429</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="60">
@@ -970,8 +966,8 @@
       <c r="B8" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="C8" s="10" t="s">
-        <v>9</v>
+      <c r="C8" s="14" t="s">
+        <v>39</v>
       </c>
       <c r="D8" s="9" t="s">
         <v>28</v>
@@ -1019,8 +1015,8 @@
       <c r="B10" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="C10" s="10" t="s">
-        <v>9</v>
+      <c r="C10" s="14" t="s">
+        <v>39</v>
       </c>
       <c r="D10" s="9" t="s">
         <v>31</v>
@@ -1032,7 +1028,10 @@
         <v>45358</v>
       </c>
       <c r="G10" s="3">
-        <v>45358</v>
+        <v>45428</v>
+      </c>
+      <c r="H10" s="3">
+        <v>45428</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="60">
@@ -1042,8 +1041,8 @@
       <c r="B11" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="C11" s="10" t="s">
-        <v>9</v>
+      <c r="C11" s="14" t="s">
+        <v>39</v>
       </c>
       <c r="D11" s="9" t="s">
         <v>34</v>
@@ -1055,7 +1054,10 @@
         <v>45358</v>
       </c>
       <c r="G11" s="3">
-        <v>45358</v>
+        <v>45428</v>
+      </c>
+      <c r="H11" s="3">
+        <v>45428</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="60">
@@ -1065,8 +1067,8 @@
       <c r="B12" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="C12" s="10" t="s">
-        <v>9</v>
+      <c r="C12" s="14" t="s">
+        <v>39</v>
       </c>
       <c r="D12" s="9" t="s">
         <v>36</v>
@@ -1078,7 +1080,10 @@
         <v>45358</v>
       </c>
       <c r="G12" s="3">
-        <v>45358</v>
+        <v>45417</v>
+      </c>
+      <c r="H12" s="3">
+        <v>45417</v>
       </c>
       <c r="I12" t="s">
         <v>37</v>
@@ -1091,8 +1096,8 @@
       <c r="B13" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="C13" s="10" t="s">
-        <v>9</v>
+      <c r="C13" s="14" t="s">
+        <v>39</v>
       </c>
       <c r="D13" s="9" t="s">
         <v>36</v>
@@ -1104,7 +1109,10 @@
         <v>45361</v>
       </c>
       <c r="G13" s="3">
-        <v>45361</v>
+        <v>45417</v>
+      </c>
+      <c r="H13" s="3">
+        <v>45417</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="75">
@@ -1137,8 +1145,8 @@
       <c r="B15" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="C15" s="10" t="s">
-        <v>9</v>
+      <c r="C15" s="14" t="s">
+        <v>39</v>
       </c>
       <c r="D15" s="9" t="s">
         <v>54</v>
@@ -1150,7 +1158,10 @@
         <v>45361</v>
       </c>
       <c r="G15" s="3">
-        <v>45361</v>
+        <v>45421</v>
+      </c>
+      <c r="H15" s="3">
+        <v>45421</v>
       </c>
       <c r="I15" t="s">
         <v>50</v>
@@ -1163,8 +1174,8 @@
       <c r="B16" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="C16" s="15" t="s">
-        <v>58</v>
+      <c r="C16" s="14" t="s">
+        <v>39</v>
       </c>
       <c r="D16" s="9" t="s">
         <v>53</v>
@@ -1176,13 +1187,16 @@
         <v>45361</v>
       </c>
       <c r="G16" s="3">
-        <v>45382</v>
+        <v>45417</v>
+      </c>
+      <c r="H16" s="3">
+        <v>45417</v>
       </c>
       <c r="I16" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="75">
+    <row r="17" spans="1:9" ht="75">
       <c r="A17">
         <v>14</v>
       </c>
@@ -1203,6 +1217,9 @@
       </c>
       <c r="G17" s="3">
         <v>45362</v>
+      </c>
+      <c r="I17" t="s">
+        <v>58</v>
       </c>
     </row>
   </sheetData>
